--- a/target/test-classes/ClientData2.xlsx
+++ b/target/test-classes/ClientData2.xlsx
@@ -1,20 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GS16\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{501B3BCA-920D-4010-9936-1B4F3EBB3B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -77,7 +74,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -405,26 +402,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="44.42578125" customWidth="1"/>
-    <col min="3" max="3" width="42.28515625" customWidth="1"/>
-    <col min="4" max="4" width="73.28515625" customWidth="1"/>
-    <col min="5" max="5" width="74.5703125" customWidth="1"/>
-    <col min="6" max="6" width="70.7109375" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" customWidth="1"/>
+    <col min="3" max="3" width="42.33203125" customWidth="1"/>
+    <col min="4" max="4" width="73.33203125" customWidth="1"/>
+    <col min="5" max="5" width="74.5546875" customWidth="1"/>
+    <col min="6" max="6" width="70.6640625" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -450,7 +447,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -476,9 +473,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
@@ -502,9 +499,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>14</v>
@@ -528,6 +525,13 @@
         <v>40</v>
       </c>
     </row>
+    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:8" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
